--- a/Gora3.xlsx
+++ b/Gora3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prob theory\Prob-Theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8032B0EF-EEA7-4425-AE72-EAA7422E3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC207E-D233-4A81-B4F6-3A2B8DD4A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="4900" windowWidth="28800" windowHeight="15370" xr2:uid="{FCA2FE4C-8782-4296-8199-B643CD03A060}"/>
+    <workbookView xWindow="3010" yWindow="8120" windowWidth="28800" windowHeight="15370" xr2:uid="{FCA2FE4C-8782-4296-8199-B643CD03A060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,23 +415,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D306A0E-7426-4FD6-8FBD-9531AB65A972}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.43681432857498959</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>0</v>
+        <v>0.16551656009525986</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -443,16 +443,16 @@
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>0.39974134358840385</v>
       </c>
       <c r="H1" s="1">
         <v>0</v>
       </c>
       <c r="I1" s="1">
-        <v>0.36393061760047801</v>
+        <v>0.42731742277622642</v>
       </c>
       <c r="J1" s="1">
-        <v>0</v>
+        <v>7.4246735401098064E-3</v>
       </c>
       <c r="K1" s="1">
         <v>0</v>
@@ -460,20 +460,8 @@
       <c r="L1" s="1">
         <v>0</v>
       </c>
-      <c r="M1" s="1">
-        <v>1.0178345135366688E-2</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0.18907670868916554</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -481,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>0.35552391057337784</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -490,57 +478,45 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.26156239513028462</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.489006654987445</v>
+        <v>0.23827146811557032</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>3.4637596023127715E-2</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>0.37156702528792418</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>0.24943094988227035</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.13887587769505533</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.35055831349982486</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>0.38747226248175987</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -549,45 +525,33 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0.22091027714379358</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>0.19573143432429008</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.32326387826634811</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.31694996689480304</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.6237989694125227E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>0.41627415584324629</v>
+        <v>0.40119175291558318</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>0.10873552799925296</v>
       </c>
       <c r="C4" s="1">
-        <v>0.29547739466192813</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.3463615852372558</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -596,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>0.1437111338479081</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -610,20 +574,8 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.28824844949482548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -631,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>0.24403514415223287</v>
       </c>
       <c r="D5" s="1">
-        <v>0.88806656321894262</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -643,16 +595,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>0.26193936281360336</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>0.24037684281588681</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>0.25364865021827698</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -660,25 +612,13 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.11193343678105734</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>0.26923032052299872</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>0.30459371934861346</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -687,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.29923005521142632</v>
+        <v>7.8284393018464821E-2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -696,34 +636,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>0.25127583405428766</v>
+        <v>0.34789156710992297</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0.40013821768542274</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>4.9355893048863252E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -734,46 +662,34 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>5.4179582537496829E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.31642408949113265</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>0.42460114154451989</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0.21661110698389294</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0.38526299793429952</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>8.17018055906749E-2</v>
+        <v>0.23247391219607008</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.28874536372191323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -781,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>0.53505234128522039</v>
       </c>
       <c r="D8" s="1">
-        <v>0.40994019306486762</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -793,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>4.7659878307543847E-3</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>0.44531914496981195</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1.4862525914213137E-2</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -810,20 +726,8 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.59005980693513238</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -834,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.50004723066595769</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0.39355086024587649</v>
+        <v>4.8531123852519904E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>0.33661712605200061</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -855,25 +759,13 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>0.14540967915174147</v>
       </c>
       <c r="L9" s="1">
-        <v>0.26983201370212284</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.306011966329781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -884,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.65295646516206574</v>
+        <v>1.5212550903573586E-2</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>9.4139046431822498E-2</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -905,39 +797,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>0.46627686879971086</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.34704353483793426</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0.42437153386489301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>0.26895290799236748</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>0.37109534874009303</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.13045872329288527</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.28696876609985655</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -946,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>7.2982977167683011E-2</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -960,25 +840,13 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.86954127670711467</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>0</v>
+        <v>0.15109559702172193</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>8.4120813608779668E-2</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -987,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.31904782496716028</v>
+        <v>0.35656704156564228</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -996,230 +864,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0.26036958022515228</v>
+        <v>0.40821654780385619</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0.2797986764962142</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0.14078391831147324</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.34513145634286974</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.34902803312147135</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.3058405105356588</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.74589657282051258</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.11959931910172748</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.13450410807775989</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>0.15773984394805543</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.16408927605994086</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.67817087999200387</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7.5408149863821106E-2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.47909073555916071</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.19794475926528049</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0.2475563553117377</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
